--- a/Meno_V101/Docs/Meno_V101_BOM.xlsx
+++ b/Meno_V101/Docs/Meno_V101_BOM.xlsx
@@ -158,10 +158,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>0.22uF</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>1uF</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -179,10 +175,6 @@
   </si>
   <si>
     <t>0.1uF</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CSTNE16M0V530000R0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -514,10 +506,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>UMK107B7104KA-T</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CGA3E3X7R1H334K080AB</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -531,10 +519,6 @@
   </si>
   <si>
     <t>IRLML6402</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>FT232RQ-REEL</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -620,6 +604,22 @@
     <rPh sb="2" eb="3">
       <t>トウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CSTNE16M0V530000R0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FT232RQ-REEL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UMK107B7104KA-T</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.33uF</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1614,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1650,16 +1650,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1670,36 +1670,36 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1716,10 +1716,10 @@
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1730,16 +1730,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1753,13 +1753,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1770,36 +1770,36 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1813,13 +1813,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1833,13 +1833,13 @@
         <v>18742</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1853,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1873,13 +1873,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1893,13 +1893,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1913,13 +1913,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1933,13 +1933,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1953,13 +1953,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1970,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1990,16 +1990,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -2010,16 +2010,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -2030,16 +2030,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -2050,56 +2050,56 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -2113,13 +2113,13 @@
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -2136,10 +2136,10 @@
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -2153,13 +2153,13 @@
         <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -2176,10 +2176,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -2190,16 +2190,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -2213,18 +2213,18 @@
         <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
